--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
@@ -546,10 +546,10 @@
         <v>4.091597</v>
       </c>
       <c r="I2">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232839</v>
       </c>
       <c r="J2">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232838</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N2">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O2">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P2">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q2">
-        <v>9.015395279377223</v>
+        <v>8.335608261359443</v>
       </c>
       <c r="R2">
-        <v>81.138557514395</v>
+        <v>75.02047435223498</v>
       </c>
       <c r="S2">
-        <v>0.2313449823354352</v>
+        <v>0.1755175391570593</v>
       </c>
       <c r="T2">
-        <v>0.2313449823354352</v>
+        <v>0.1755175391570592</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>4.091597</v>
       </c>
       <c r="I3">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232839</v>
       </c>
       <c r="J3">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232838</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P3">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q3">
         <v>3.756500661162666</v>
@@ -638,10 +638,10 @@
         <v>33.808505950464</v>
       </c>
       <c r="S3">
-        <v>0.0963959485046296</v>
+        <v>0.07909821709658986</v>
       </c>
       <c r="T3">
-        <v>0.09639594850462964</v>
+        <v>0.07909821709658985</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>4.091597</v>
       </c>
       <c r="I4">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232839</v>
       </c>
       <c r="J4">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232838</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N4">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O4">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P4">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q4">
-        <v>0.3127121208941111</v>
+        <v>0.7752744356943334</v>
       </c>
       <c r="R4">
-        <v>2.814409088047</v>
+        <v>6.977469921249</v>
       </c>
       <c r="S4">
-        <v>0.008024537787024475</v>
+        <v>0.01632445489973817</v>
       </c>
       <c r="T4">
-        <v>0.008024537787024477</v>
+        <v>0.01632445489973817</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>4.091597</v>
       </c>
       <c r="I5">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232839</v>
       </c>
       <c r="J5">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232838</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N5">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O5">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P5">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q5">
-        <v>0.3623541034294444</v>
+        <v>0.5031523209058889</v>
       </c>
       <c r="R5">
-        <v>3.261186930865</v>
+        <v>4.528370888153</v>
       </c>
       <c r="S5">
-        <v>0.009298405789130092</v>
+        <v>0.01059455464047466</v>
       </c>
       <c r="T5">
-        <v>0.009298405789130094</v>
+        <v>0.01059455464047466</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>4.091597</v>
       </c>
       <c r="I6">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232839</v>
       </c>
       <c r="J6">
-        <v>0.35258381842799</v>
+        <v>0.2895605203232838</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N6">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q6">
-        <v>0.293048360334</v>
+        <v>0.3811559008882222</v>
       </c>
       <c r="R6">
-        <v>2.637435243006</v>
+        <v>3.430403107994</v>
       </c>
       <c r="S6">
-        <v>0.007519944011770576</v>
+        <v>0.008025754529421969</v>
       </c>
       <c r="T6">
-        <v>0.007519944011770578</v>
+        <v>0.008025754529421966</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.247734666666667</v>
+        <v>1.444951</v>
       </c>
       <c r="H7">
-        <v>3.743204</v>
+        <v>4.334853</v>
       </c>
       <c r="I7">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="J7">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N7">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O7">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P7">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q7">
-        <v>8.247748659348892</v>
+        <v>8.831181682501665</v>
       </c>
       <c r="R7">
-        <v>74.22973793414002</v>
+        <v>79.48063514251498</v>
       </c>
       <c r="S7">
-        <v>0.2116463237356784</v>
+        <v>0.1859525097822673</v>
       </c>
       <c r="T7">
-        <v>0.2116463237356784</v>
+        <v>0.1859525097822673</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.247734666666667</v>
+        <v>1.444951</v>
       </c>
       <c r="H8">
-        <v>3.743204</v>
+        <v>4.334853</v>
       </c>
       <c r="I8">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="J8">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P8">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q8">
-        <v>3.436640583338667</v>
+        <v>3.979834319104</v>
       </c>
       <c r="R8">
-        <v>30.929765250048</v>
+        <v>35.818508871936</v>
       </c>
       <c r="S8">
-        <v>0.08818798626216698</v>
+        <v>0.08380081021562089</v>
       </c>
       <c r="T8">
-        <v>0.08818798626216699</v>
+        <v>0.08380081021562089</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.247734666666667</v>
+        <v>1.444951</v>
       </c>
       <c r="H9">
-        <v>3.743204</v>
+        <v>4.334853</v>
       </c>
       <c r="I9">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="J9">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N9">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O9">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P9">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q9">
-        <v>0.2860851794004445</v>
+        <v>0.8213665014889999</v>
       </c>
       <c r="R9">
-        <v>2.574766614604</v>
+        <v>7.392298513400999</v>
       </c>
       <c r="S9">
-        <v>0.007341261112113723</v>
+        <v>0.0172949858687194</v>
       </c>
       <c r="T9">
-        <v>0.007341261112113723</v>
+        <v>0.0172949858687194</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.247734666666667</v>
+        <v>1.444951</v>
       </c>
       <c r="H10">
-        <v>3.743204</v>
+        <v>4.334853</v>
       </c>
       <c r="I10">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="J10">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N10">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O10">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P10">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q10">
-        <v>0.3315002257977778</v>
+        <v>0.5330660247663334</v>
       </c>
       <c r="R10">
-        <v>2.983502032180001</v>
+        <v>4.797594222897</v>
       </c>
       <c r="S10">
-        <v>0.008506661272724298</v>
+        <v>0.01122442825305754</v>
       </c>
       <c r="T10">
-        <v>0.0085066612727243</v>
+        <v>0.01122442825305754</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.247734666666667</v>
+        <v>1.444951</v>
       </c>
       <c r="H11">
-        <v>3.743204</v>
+        <v>4.334853</v>
       </c>
       <c r="I11">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="J11">
-        <v>0.3225618650798028</v>
+        <v>0.3067756404662893</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N11">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q11">
-        <v>0.268095756888</v>
+        <v>0.4038166027673333</v>
       </c>
       <c r="R11">
-        <v>2.412861811992</v>
+        <v>3.634349424906</v>
       </c>
       <c r="S11">
-        <v>0.006879632697119407</v>
+        <v>0.008502906346624168</v>
       </c>
       <c r="T11">
-        <v>0.006879632697119407</v>
+        <v>0.008502906346624166</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4477083333333334</v>
+        <v>0.680678</v>
       </c>
       <c r="H12">
-        <v>1.343125</v>
+        <v>2.042034</v>
       </c>
       <c r="I12">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="J12">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N12">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O12">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P12">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q12">
-        <v>2.959431924652778</v>
+        <v>4.160134900963333</v>
       </c>
       <c r="R12">
-        <v>26.63488732187501</v>
+        <v>37.44121410867</v>
       </c>
       <c r="S12">
-        <v>0.07594228595809445</v>
+        <v>0.08759728354357635</v>
       </c>
       <c r="T12">
-        <v>0.07594228595809446</v>
+        <v>0.08759728354357631</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4477083333333334</v>
+        <v>0.680678</v>
       </c>
       <c r="H13">
-        <v>1.343125</v>
+        <v>2.042034</v>
       </c>
       <c r="I13">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="J13">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P13">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q13">
-        <v>1.233124853333333</v>
+        <v>1.874794138112</v>
       </c>
       <c r="R13">
-        <v>11.09812368</v>
+        <v>16.873147243008</v>
       </c>
       <c r="S13">
-        <v>0.03164334325577046</v>
+        <v>0.03947633372754399</v>
       </c>
       <c r="T13">
-        <v>0.03164334325577047</v>
+        <v>0.03947633372754398</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4477083333333334</v>
+        <v>0.680678</v>
       </c>
       <c r="H14">
-        <v>1.343125</v>
+        <v>2.042034</v>
       </c>
       <c r="I14">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="J14">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N14">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O14">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P14">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q14">
-        <v>0.1026522082638889</v>
+        <v>0.386923921642</v>
       </c>
       <c r="R14">
-        <v>0.9238698743750001</v>
+        <v>3.482315294778</v>
       </c>
       <c r="S14">
-        <v>0.002634168838034941</v>
+        <v>0.008147208030686293</v>
       </c>
       <c r="T14">
-        <v>0.002634168838034941</v>
+        <v>0.00814720803068629</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4477083333333334</v>
+        <v>0.680678</v>
       </c>
       <c r="H15">
-        <v>1.343125</v>
+        <v>2.042034</v>
       </c>
       <c r="I15">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="J15">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N15">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O15">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P15">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q15">
-        <v>0.1189478961805556</v>
+        <v>0.2511132319406667</v>
       </c>
       <c r="R15">
-        <v>1.070531065625</v>
+        <v>2.260019087466</v>
       </c>
       <c r="S15">
-        <v>0.003052334155960461</v>
+        <v>0.005287529732450931</v>
       </c>
       <c r="T15">
-        <v>0.003052334155960462</v>
+        <v>0.005287529732450929</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4477083333333334</v>
+        <v>0.680678</v>
       </c>
       <c r="H16">
-        <v>1.343125</v>
+        <v>2.042034</v>
       </c>
       <c r="I16">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="J16">
-        <v>0.1157406609512359</v>
+        <v>0.1445138481521608</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N16">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q16">
-        <v>0.09619729875000001</v>
+        <v>0.1902272655186667</v>
       </c>
       <c r="R16">
-        <v>0.8657756887500001</v>
+        <v>1.712045389668</v>
       </c>
       <c r="S16">
-        <v>0.002468528743375596</v>
+        <v>0.004005493117903269</v>
       </c>
       <c r="T16">
-        <v>0.002468528743375596</v>
+        <v>0.004005493117903268</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.808894</v>
+        <v>1.220628333333333</v>
       </c>
       <c r="H17">
-        <v>2.426682</v>
+        <v>3.661885</v>
       </c>
       <c r="I17">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="J17">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N17">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O17">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P17">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q17">
-        <v>5.346933592763333</v>
+        <v>7.460177250630555</v>
       </c>
       <c r="R17">
-        <v>48.12240233487</v>
+        <v>67.14159525567499</v>
       </c>
       <c r="S17">
-        <v>0.1372082109806314</v>
+        <v>0.1570841517080367</v>
       </c>
       <c r="T17">
-        <v>0.1372082109806314</v>
+        <v>0.1570841517080367</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.808894</v>
+        <v>1.220628333333333</v>
       </c>
       <c r="H18">
-        <v>2.426682</v>
+        <v>3.661885</v>
       </c>
       <c r="I18">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="J18">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P18">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q18">
-        <v>2.227939979776</v>
+        <v>3.361981501013334</v>
       </c>
       <c r="R18">
-        <v>20.051459817984</v>
+        <v>30.25783350912</v>
       </c>
       <c r="S18">
-        <v>0.05717139618322908</v>
+        <v>0.07079108101622569</v>
       </c>
       <c r="T18">
-        <v>0.0571713961832291</v>
+        <v>0.07079108101622568</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.808894</v>
+        <v>1.220628333333333</v>
       </c>
       <c r="H19">
-        <v>2.426682</v>
+        <v>3.661885</v>
       </c>
       <c r="I19">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="J19">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N19">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O19">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P19">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q19">
-        <v>0.1854661822646667</v>
+        <v>0.6938527491716667</v>
       </c>
       <c r="R19">
-        <v>1.669195640382</v>
+        <v>6.244674742545</v>
       </c>
       <c r="S19">
-        <v>0.004759266713239874</v>
+        <v>0.01461001084186144</v>
       </c>
       <c r="T19">
-        <v>0.004759266713239875</v>
+        <v>0.01461001084186143</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.808894</v>
+        <v>1.220628333333333</v>
       </c>
       <c r="H20">
-        <v>2.426682</v>
+        <v>3.661885</v>
       </c>
       <c r="I20">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="J20">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N20">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O20">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P20">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q20">
-        <v>0.2149083060766667</v>
+        <v>0.4503097290961112</v>
       </c>
       <c r="R20">
-        <v>1.93417475469</v>
+        <v>4.052787561865</v>
       </c>
       <c r="S20">
-        <v>0.005514784070175482</v>
+        <v>0.009481882189187876</v>
       </c>
       <c r="T20">
-        <v>0.005514784070175483</v>
+        <v>0.009481882189187874</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.808894</v>
+        <v>1.220628333333333</v>
       </c>
       <c r="H21">
-        <v>2.426682</v>
+        <v>3.661885</v>
       </c>
       <c r="I21">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="J21">
-        <v>0.2091136555409713</v>
+        <v>0.2591499910582661</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N21">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q21">
-        <v>0.173803818204</v>
+        <v>0.3411257453077778</v>
       </c>
       <c r="R21">
-        <v>1.564234363836</v>
+        <v>3.07013170777</v>
       </c>
       <c r="S21">
-        <v>0.004459997593695432</v>
+        <v>0.007182865302954414</v>
       </c>
       <c r="T21">
-        <v>0.004459997593695432</v>
+        <v>0.007182865302954412</v>
       </c>
     </row>
   </sheetData>
